--- a/biology/Zoologie/Chouette_africaine/Chouette_africaine.xlsx
+++ b/biology/Zoologie/Chouette_africaine/Chouette_africaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Strix woodfordii
 La Chouette africaine (Strix woodfordii) ou hulotte africaine, est une espèce d'oiseaux de la famille des Strigidae.
@@ -513,10 +525,12 @@
           <t>Description et associés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D’une longueur d’un peu plus de 30 cm, trapue, et assez large, elle possède un bec jaune, des pattes jaune clair, un iris brun sombre[1] et des paupières rouges[2]. Le contour des yeux varie du gris au blanc assez pur. Le haut de la tête est chocolat brun foncé[2]. Les plumes du cou sont surtout bandées de blanc et de brun roux. Cela se poursuit sur le haut du poitrail. Les plumes des ailes, notamment vues du dessous, et celles de la queue sont brun foncé presque noirâtre, traversées par des bandes brun roux ou blanches. Le jeune est de teinte blanchâtre, chaque plume avec l'extrémité blanche et barrée de blanc et de chamois[2].
-Le chant est un caractéristique, et simple, ouOOuhhh ou un oouIIâh étiré et un  wuhh-houu wuhh-houu hou-wuhh-houu[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D’une longueur d’un peu plus de 30 cm, trapue, et assez large, elle possède un bec jaune, des pattes jaune clair, un iris brun sombre et des paupières rouges. Le contour des yeux varie du gris au blanc assez pur. Le haut de la tête est chocolat brun foncé. Les plumes du cou sont surtout bandées de blanc et de brun roux. Cela se poursuit sur le haut du poitrail. Les plumes des ailes, notamment vues du dessous, et celles de la queue sont brun foncé presque noirâtre, traversées par des bandes brun roux ou blanches. Le jeune est de teinte blanchâtre, chaque plume avec l'extrémité blanche et barrée de blanc et de chamois.
+Le chant est un caractéristique, et simple, ouOOuhhh ou un oouIIâh étiré et un  wuhh-houu wuhh-houu hou-wuhh-houu,.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espèce de la partie inférieure de l’Afrique, surtout subsaharienne, observée depuis le Sénégal et la Gambie, jusqu’en Afrique du Sud, et vers l’Éthiopie[4],[3]. Elle vit dans la forêt humide essentiellement. On le rencontre aussi dans toute autre région suffisamment boisée pour lui offrir un abri[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce de la partie inférieure de l’Afrique, surtout subsaharienne, observée depuis le Sénégal et la Gambie, jusqu’en Afrique du Sud, et vers l’Éthiopie,. Elle vit dans la forêt humide essentiellement. On le rencontre aussi dans toute autre région suffisamment boisée pour lui offrir un abri.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2021, l'espèce est considérée comme de préoccupation mineure par l'UICN[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, l'espèce est considérée comme de préoccupation mineure par l'UICN.
 </t>
         </is>
       </c>
